--- a/planilha_de_preco.xlsx
+++ b/planilha_de_preco.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,1620 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fogão Atlas 4 Bocas Coliseum Plus Forno 50L</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$679,00
+Para
+R$649,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Freezer Vertical Consul 1 Porta 121L 220v CVU18GBBNA - Branco</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$3.099,00
+Para
+R$2.599,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Micro-Ondas Electrolux 20 Litros Branco 220V MTO30</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$799,00
+Para
+R$568,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ar-Condicionado Springer Midea AirVolution 12.000 BTU/H Frio</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>R$2.149,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Forno Elétrico Suggar 50 Litros FE5012PT 220V</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$649,00
+Para
+R$559,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Micro-Ondas Panasonic 21 Litros Espelhado Branco 220V ST27</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$729,00
+Para
+R$619,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Centrífuga De Roupas Suggar 15kg 220v CT1502BR Branca</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$649,00
+Para
+R$539,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Lava E Seca LG 11kg 220v Thinq VC4 - Branca</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$5.899,00
+Para
+R$4.399,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Continental 2 Portas Branca 370L 220V TC41</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$3.359,00
+Para
+R$2.949,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Conservador Horizontal Esmaltec 1 Porta 230L 220v ECH250 - Branco</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$2.899,00
+Para
+R$2.299,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Geladeira Esmaltec Cycle Defrost 1 Porta Branca 245L 220V ROC31</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$2.429,00
+Para
+R$1.849,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Electrolux Inverter 2 Portas Platino 474L 220V IT56</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$6.699,00
+Para
+R$5.399,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cervejeira Consul Frost Free 82L Painel Digital</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$3.499,00
+Para
+R$2.399,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Cervejeira Consul Frost Free 82L Painel Digital</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$3.499,00
+Para
+R$2.399,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Bebedouro De Água Esmaltec De Coluna Preto 220V EGC35B</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$899,00
+Para
+R$799,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Fogão 5 Bocas Consul Mesa De Vidro Branco Bivolt CFS5VAR</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$2.359,00
+Para
+R$1.999,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Panasonic Inverse 2 Portas Preta 397L 220V BB41GV1BB</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$5.899,00
+Para
+R$4.899,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Tanquinho De Lavar Roupas Suggar 6,7kg 220v Aleluia - Branco</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$499,00
+Para
+R$419,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Geladeira Esmaltec Cycle Defrost 2 Portas Branca 276L 220V RCD34</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$2.299,00
+Para
+R$2.199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Brastemp 3 Portas Inox 554L 220V BRO85AK</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$8.599,00
+Para
+R$7.699,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ar-Condicionado Split Inverter G-Top Connection 12.000 Btus Gree</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R$2.459,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Panasonic Inverse 2 Portas 425L 220V BB53PV3XB</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$5.399,00
+Para
+R$5.299,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fogão 5 Bocas Esmaltec Acendimento Automático Inox Bivolt Agata</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>R$1.049,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Fogão 4 Bocas Dako Mesa De Vidro E Acendimento Automático Preto Bivolt Supreme Glass</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>R$1.349,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Panasonic Inverse E Inverter 2 Portas Preta 480L 220V NR-BB71GVFBB</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$6.999,00
+Para
+R$6.799,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Bebedouro De Água Esmaltec De Coluna Branco 220V EGC35B</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>R$699,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Consul 2 Portas Branca 386L 220V CRM44A</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$3.999,00
+Para
+R$2.946,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Máquina De Lavar Consul 9Kg CWB09AB Com Dosagem Extra Econômica 220V</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$2.099,00
+Para
+R$1.788,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Conservador Horizontal Esmaltec 2 Portas 325L 220v ECH350 - Branco</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>R$2.899,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tanquinho De Lavar Roupas Suggar 10kg 220v LX1022 - Prata</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$599,00
+Para
+R$499,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ar-Condicionado Springer Inverter Midea AirVolution Connect 9.000 BTU/H Frio</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>R$2.159,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Micro-Ondas LG 30 Litros Prata 220V MS3095LRA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$899,00
+Para
+R$759,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Máquina De Lavar Roupas Consul 12Kg 220v CWH12 - Branco</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$2.799,00
+Para
+R$1.999,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Brastemp 2 Portas Inox 400L 220V BRM54JK</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$4.999,00
+Para
+R$4.599,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Consul 1 Porta Branca 342L 220V CRB39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$2.899,00
+Para
+R$2.799,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Fogão 4 Bocas Braslar Preto 220V Sirius</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$679,00
+Para
+R$499,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Micro-Ondas Panasonic 21 Litros Branco 220V ST25L</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$699,00
+Para
+R$579,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Tanquinho De Lavar Roupas Arno 10kg 220v ML81 - Cinza</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$699,00
+Para
+R$559,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fogão 4 Bocas Atlas Com Forno Limpa Fácil De 50L Branco Bivolt Coliseum Plus</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$679,00
+Para
+R$649,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Tanquinho De Lavar Roupas Colormaq Semiautomático 20kg 220v LCS20 - Branca</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$759,00
+Para
+R$629,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ar-Condicionado Springer Inverter Midea AirVolution Connect 12.000 BTU/H Frio</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>R$2.549,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Geladeira Esmaltec Cycle Defrost 2 Portas Branca 306L 220V RCD38</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$2.699,00
+Para
+R$2.549,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Consul 2 Portas Inox 410L 220V CRM50</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$5.199,00
+Para
+R$3.999,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Máquina De Lavar Panasonic 12 Kg NA-F120B1TB</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$2.499,00
+Para
+R$2.299,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Electrolux 2 Portas Branca 371L 220V DFN41</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$4.199,00
+Para
+R$3.299,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Panasonic 2 Portas Branca 435L 220V BT50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$4.199,00
+Para
+R$3.799,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Philco Inverter 2 Portas Inox 489L 220V Side By Side PRF504I</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$5.999,00
+Para
+R$5.699,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Fogão 4 Bocas Atlas Preto 220V Mônaco Top Glass</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$999,00
+Para
+R$899,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Fogão 4 Bocas Itatiaia Mesa De Vidro E Acendimento Automático Preto Bivolt Itaglass New</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$1.349,00
+Para
+R$999,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Fogão 4 Bocas Braslar Branco 220V Sirius</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$679,00
+Para
+R$499,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Fogão Esmaltec 5 Bocas Caribe Glass 5096 Bivolt</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>R$1.149,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Bebedouro De Água Esmaltec De Mesa Preto 220V EGM30</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$739,00
+Para
+R$599,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Bebedouro De Água Colormaq De Mesa Branco 220V CBEHFBB1 Premium</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$729,00
+Para
+R$526,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Micro-Ondas Panasonic 34 Litros Branco 220V ST65</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$1.059,00
+Para
+R$849,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Conservador Horizontal Esmaltec 2 Portas 468L 220v ECH500 - Branco</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>R$3.299,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Lavadora Colormaq 20Kg LCS20</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$759,00
+Para
+R$629,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Máquina De Lavar Roupas Panasonic 14kg 220v NA-F140B1WB - Branco</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$2.449,00
+Para
+R$2.299,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Máquina De Lavar Roupas Electrolux 8,5kg 220v LES09 - Branco</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$2.299,00
+Para
+R$1.663,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Brastemp 2 Portas Inox 400L 220V BRM54JK</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$4.999,00
+Para
+R$4.599,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Fogão 4 Bocas Esmaltec Acendimento Automático Branco Bivolt Agata</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$899,00
+Para
+R$779,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Conservador Horizontal Fricon 1 Porta 503L 220v HCED503 - Branco</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$3.899,00
+Para
+R$3.369,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Freezer Horizontal Philco 1 Porta Branco PFH205B 199 Litros</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$2.499,00
+Para
+R$1.999,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Bebedouro De Água Esmaltec De Mesa Branco 220V EGM30</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$599,00
+Para
+R$579,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Ar-Condicionado Split G-Top Plus 12000 Btus Gree</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>R$2.199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ar-Condicionado Split Inverter G-Top Connection 9.000 Btus Gree</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>R$2.149,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Geladeira Consul 2 Portas Branca 334L 220V CRD37</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$3.499,00
+Para
+R$2.699,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Samsung Inverter 2 Portas Inox 460L Bivolt RT46</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$5.799,00
+Para
+R$4.299,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Fogão 4 Bocas Esmaltec Branco 220V Bali</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$799,00
+Para
+R$526,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Fogão Esmaltec 5 Bocas Caribe Glass 5096 Bivolt</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>R$1.149,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Electrolux Inverter 2 Portas Branca 474L 220V IT56</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$6.399,00
+Para
+R$5.199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Bebedouro De Água Esmaltec De Mesa Branco 220V EGM30</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$599,00
+Para
+R$579,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Fogão 5 Bocas Esmaltec Acendimento Automático Branco Bivolt Agata</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>R$999,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Micro-Ondas Panasonic 27 Litros Espelhado Prata 220V ST55</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$769,00
+Para
+R$759,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Centrífuga De Roupas Suggar 15kg 220v CT1502 - Branca</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$649,00
+Para
+R$539,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Cooktop 5 Bocas Consul Acendimento Automático Bivolt CD075AE</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$839,00
+Para
+R$829,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Tanquinho De Lavar Roupas Suggar 13kg 220v LC1312 - Preto</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$699,00
+Para
+R$529,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Ar-Condicionado Springer Midea AirVolution 9.000 BTU/H Frio</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>R$1.949,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Cervejeira Consul Frost Free 82 Litros 220v CZD12AT - Titanium</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$3.499,00
+Para
+R$2.399,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Fogão 5 Bocas Braslar Mesa De Vidro E Acendimento Automático Preto Bivolt Fenix Glass</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$1.299,00
+Para
+R$842,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Conservador Horizontal Fricon 1 Porta 411L 220v HCED411 - Branco</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$3.399,00
+Para
+R$2.899,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Tanquinho De Lavar Roupas Suggar 13kg 220v LC1312 - Branca</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$699,00
+Para
+R$529,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Ar-Condicionado Split G-Top Plus 18000 Btus Gree</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>R$3.299,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Máquina De Lavar Electrolux 11kg LES11 Essencial Care Easy Clean 220V</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$2.599,00
+Para
+R$1.799,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Panasonic Inverse 2 Portas Preta 425L 220V BB53</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$5.999,00
+Para
+R$5.599,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Consul 2 Portas Inox 340L 220V CRM39</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$4.199,00
+Para
+R$3.299,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Micro-Ondas Electrolux 23 Litros Espelhado Prata 220V ME23S</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$829,00
+Para
+R$699,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Tanquinho De Lavar Roupas Suggar 10kg 220v LX1022 - Branco</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$599,00
+Para
+R$499,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Centrífuga De Roupas Suggar 15kg 220v CT1502 - Preta</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$649,00
+Para
+R$539,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Fogão 5 Bocas Brastemp Mesa De Vidro E Turbo Chama Preto Bivolt BFS5</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>R$3.049,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Lavadora Colormaq 20Kg LCS20</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$759,00
+Para
+R$629,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Forno Elétrico Philco 38L PFE44PI 220V</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$499,00
+Para
+R$399,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Fogão 5 Bocas Esmaltec Mesa De Vidro E Acendimento Automático Branco Bivolt Caribe Glass</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>R$1.149,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Fogão 5 Bocas Itatiaia Preto 220V Electra Glass</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$1.599,00
+Para
+R$1.199,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Depurador De Ar Suggar Slim Touch 60 Cm 220v DTH62 - Preto</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$599,00
+Para
+R$499,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Tanquinho De Lavar Roupas Colormaq 15kg 220v LCS15 - Prata</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$699,00
+Para
+R$579,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ar-Condicionado Split G-Top Plus 9000 Btus Gree</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>R$1.999,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ar-Condicionado Split G-Top Plus 24.000 Btus Gree</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>R$4.149,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Máquina De Lavar Panasonic 12Kg F120B1WB 220V</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$2.399,00
+Para
+R$1.999,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Máquina De Lavar Consul 15Kg CWH15AB Com Dosagem Extra Econômica</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$2.859,00
+Para
+R$2.499,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Geladeira Frost Free Panasonic 2 Portas 483L 220V BT55</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$5.199,00
+Para
+R$4.499,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Fogão Atlas 4 Bocas Coliseum Plus Forno 50L</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$679,00
+Para
+R$649,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Fogão 5 Bocas Itatiaia Mesa De Vidro E Acendimento Automático Preto Bivolt Itaglass New</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$1.899,00
+Para
+R$1.399,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Fogão 5 Bocas Atlas Preto Bivolt Mônaco Top Glass</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$1.399,00
+Para
+R$1.359,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Freezer Vertical Consul 1 Porta 142L 220v CVU20GBBNA - Branco</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$3.379,00
+Para
+R$2.799,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Tanquinho De Lavar Roupas Suggar 10kg 220v LX1022 - Preto</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$599,00
+Para
+R$499,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Cooktop 4 Bocas Consul Acendimento Automático Bivolt CD060AE</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>R$639,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Fogão 4 Bocas Atlas Mesa De Vidro E Acendimento Automático Branco Bivolt Mônaco</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$999,00
+Para
+R$899,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Tanquinho De Lavar Roupas Suggar Semiautomático 20kg 220v LE2002 - Preto</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$799,00
+Para
+R$589,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Forno Elétrico Suggar FE4202PT 42L Com Time 1800W</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$569,00
+Para
+R$499,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Freezer Horizontal Philco 1 Porta 99L 220v PFH105B - Branco</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$1.799,00
+Para
+R$1.499,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Tanquinho De Lavar Roupas Suggar Semiautomático 20kg 220v LE2002 - Branco</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Preço reduzido de
+R$799,00
+Para
+R$589,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Ar-Condicionado Springer Midea AirVolution 18.000 BTU/H Frio</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>R$3.199,00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
